--- a/data/trans_orig/P57B1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7997</v>
+        <v>7862</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003374093179785233</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01960967522339972</v>
+        <v>0.01927946544364417</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21615</v>
+        <v>19557</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009963963609603081</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05962660710408679</v>
+        <v>0.05394902647995881</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23469</v>
+        <v>20476</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.006475341162858622</v>
+        <v>0.006475341162858621</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03046708167815105</v>
+        <v>0.02658137979169175</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17518</v>
+        <v>19192</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01192981798807531</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0429587446470818</v>
+        <v>0.0470642982866491</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -833,19 +833,19 @@
         <v>17601</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8924</v>
+        <v>8675</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31608</v>
+        <v>32298</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04855200192342703</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02461617411101619</v>
+        <v>0.02393023810659922</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08719191723932213</v>
+        <v>0.08909419565780624</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -854,19 +854,19 @@
         <v>22466</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11642</v>
+        <v>12214</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39778</v>
+        <v>38224</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02916452317307415</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01511294802427587</v>
+        <v>0.01585668420098458</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05163865061905094</v>
+        <v>0.04962133772774431</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>66415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47413</v>
+        <v>44897</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94011</v>
+        <v>91796</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1628640369224255</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1162665806800658</v>
+        <v>0.1100979630295671</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.230537108429764</v>
+        <v>0.2251044126701874</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>71</v>
@@ -904,19 +904,19 @@
         <v>121480</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>98018</v>
+        <v>98482</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>147929</v>
+        <v>146494</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3351055873965932</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2703852948407618</v>
+        <v>0.2716646734798606</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4080663518305491</v>
+        <v>0.4041070257719918</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>101</v>
@@ -925,19 +925,19 @@
         <v>187895</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>156005</v>
+        <v>157982</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>224087</v>
+        <v>225953</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.243922347051326</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2025234166848573</v>
+        <v>0.2050898268700286</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2909066681321425</v>
+        <v>0.2933294774714972</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>335137</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>307472</v>
+        <v>309268</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>356205</v>
+        <v>357533</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8218320519097141</v>
+        <v>0.821832051909714</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7539892203541642</v>
+        <v>0.7583945974497318</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8734952767387323</v>
+        <v>0.8767508324679544</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>125</v>
@@ -975,19 +975,19 @@
         <v>219819</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>193901</v>
+        <v>192995</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>245736</v>
+        <v>243856</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6063784470703766</v>
+        <v>0.6063784470703767</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5348818638992283</v>
+        <v>0.5323811504515465</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6778702673843132</v>
+        <v>0.6726835952053607</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>264</v>
@@ -996,19 +996,19 @@
         <v>554957</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>519574</v>
+        <v>515842</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>589822</v>
+        <v>586493</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7204377886127414</v>
+        <v>0.7204377886127412</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6745040261190224</v>
+        <v>0.6696593572318078</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7656998641207401</v>
+        <v>0.761377185516476</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>5191</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1226</v>
+        <v>1243</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12322</v>
+        <v>12111</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01088502818303691</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002571870934185247</v>
+        <v>0.00260740682400106</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02583793556272075</v>
+        <v>0.02539499333664944</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1121,19 +1121,19 @@
         <v>7651</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3335</v>
+        <v>3261</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15186</v>
+        <v>15282</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01529460621398912</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006666728753124548</v>
+        <v>0.006519215028446343</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0303548173834242</v>
+        <v>0.03054648689151378</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1142,19 +1142,19 @@
         <v>12842</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6740</v>
+        <v>6737</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22854</v>
+        <v>23042</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.01314257871460579</v>
+        <v>0.0131425787146058</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.006897992931035134</v>
+        <v>0.006894761042621751</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02338848654263267</v>
+        <v>0.02358094479507479</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>19787</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10813</v>
+        <v>10602</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32479</v>
+        <v>32674</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04149082313999528</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02267418218925003</v>
+        <v>0.02223094914361718</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06810489508701303</v>
+        <v>0.06851413412843194</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1192,19 +1192,19 @@
         <v>20720</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12523</v>
+        <v>12696</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32176</v>
+        <v>32305</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04141796475684709</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02503312463175445</v>
+        <v>0.02537775548209406</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06431581739474376</v>
+        <v>0.06457396830304758</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1213,19 +1213,19 @@
         <v>40507</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28682</v>
+        <v>28186</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55968</v>
+        <v>58516</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04145352218274928</v>
+        <v>0.04145352218274929</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02935256935904256</v>
+        <v>0.02884444541125772</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05727639165844055</v>
+        <v>0.05988368836641819</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>139534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>113334</v>
+        <v>114903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>166599</v>
+        <v>164524</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2925919685414183</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2376520733648063</v>
+        <v>0.2409420028910917</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3493442596199997</v>
+        <v>0.3449941754254289</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>133</v>
@@ -1263,19 +1263,19 @@
         <v>141845</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>121470</v>
+        <v>123547</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>163989</v>
+        <v>164502</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2835345018398169</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2428072796531728</v>
+        <v>0.2469591576365938</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3277975905560716</v>
+        <v>0.3288235842739612</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>223</v>
@@ -1284,19 +1284,19 @@
         <v>281379</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>245897</v>
+        <v>249701</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>314727</v>
+        <v>315440</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2879548607221805</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2516436066882384</v>
+        <v>0.2555363286649769</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3220824899021595</v>
+        <v>0.3228114845691019</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>312378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>284606</v>
+        <v>287927</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>340268</v>
+        <v>339289</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6550321801355495</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5967953173759571</v>
+        <v>0.6037592316224359</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.713515518925279</v>
+        <v>0.7114625450028962</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>301</v>
@@ -1334,19 +1334,19 @@
         <v>330057</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>307046</v>
+        <v>306463</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>351676</v>
+        <v>350824</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.659752927189347</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6137559668154653</v>
+        <v>0.6125904695240506</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7029674187500816</v>
+        <v>0.7012640322204099</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>496</v>
@@ -1355,19 +1355,19 @@
         <v>642436</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>605482</v>
+        <v>607021</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>676330</v>
+        <v>675817</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6574490383804643</v>
+        <v>0.6574490383804644</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6196323992488076</v>
+        <v>0.6212069770889584</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6921360285080008</v>
+        <v>0.6916102731601672</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>18816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9925</v>
+        <v>11491</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30175</v>
+        <v>30726</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03042126401018693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0160458043342361</v>
+        <v>0.01857838430119749</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04878558300382686</v>
+        <v>0.04967727744998212</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -1480,19 +1480,19 @@
         <v>11158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5983</v>
+        <v>6515</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17398</v>
+        <v>17944</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01795641916594773</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009627995442261764</v>
+        <v>0.01048454918667511</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02799861155673157</v>
+        <v>0.02887774816632697</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -1501,19 +1501,19 @@
         <v>29974</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21008</v>
+        <v>20699</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43569</v>
+        <v>43214</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02417439248276033</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01694283147372843</v>
+        <v>0.01669359072587706</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03513897485692585</v>
+        <v>0.03485274824132589</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>28061</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18699</v>
+        <v>19886</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>40542</v>
+        <v>40579</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04536848077563572</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03023255470593004</v>
+        <v>0.0321513715404773</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06554655118067765</v>
+        <v>0.06560736600293297</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>49</v>
@@ -1551,19 +1551,19 @@
         <v>36912</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>28030</v>
+        <v>26892</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47959</v>
+        <v>47701</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05940201113433517</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04510803637708651</v>
+        <v>0.04327623479137204</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07717939353778795</v>
+        <v>0.07676531287347699</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>76</v>
@@ -1572,19 +1572,19 @@
         <v>64973</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>51446</v>
+        <v>50834</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>80771</v>
+        <v>80349</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.052401513462565</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04149160310637264</v>
+        <v>0.04099804052149278</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06514236742662044</v>
+        <v>0.06480253162879859</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>164467</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>142525</v>
+        <v>141502</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>186764</v>
+        <v>187445</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2659041761294598</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2304300084173432</v>
+        <v>0.2287749334666477</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3019531260935746</v>
+        <v>0.3030549774619014</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>253</v>
@@ -1622,19 +1622,19 @@
         <v>183953</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>165494</v>
+        <v>165740</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>202953</v>
+        <v>205431</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2960326115444408</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2663269706535538</v>
+        <v>0.2667236474394172</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3266098171314719</v>
+        <v>0.3305978253611737</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>401</v>
@@ -1643,19 +1643,19 @@
         <v>348419</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>320170</v>
+        <v>315708</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>378494</v>
+        <v>377118</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2810033183740373</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2582200072943968</v>
+        <v>0.2546216594499449</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3052583636137819</v>
+        <v>0.3041493635970347</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>407175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>382059</v>
+        <v>382053</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>431006</v>
+        <v>431768</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6583060790847175</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6176997710700665</v>
+        <v>0.6176897046484521</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6968353329246261</v>
+        <v>0.6980674499236187</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>528</v>
@@ -1693,19 +1693,19 @@
         <v>389370</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>369525</v>
+        <v>367406</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>410458</v>
+        <v>408238</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6266089581552763</v>
+        <v>0.6266089581552764</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5946720374811723</v>
+        <v>0.5912620882129348</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6605452910335332</v>
+        <v>0.6569716548703274</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>882</v>
@@ -1714,19 +1714,19 @@
         <v>796545</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>762608</v>
+        <v>765934</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>825413</v>
+        <v>830067</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6424207756806374</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6150501029463095</v>
+        <v>0.617732654868137</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.665703129972589</v>
+        <v>0.6694563714522903</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>15065</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8215</v>
+        <v>9057</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24166</v>
+        <v>25409</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02155434767026454</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01175405284185475</v>
+        <v>0.01295776198841167</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03457624947848926</v>
+        <v>0.03635481904810709</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -1839,19 +1839,19 @@
         <v>21034</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14389</v>
+        <v>15065</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29284</v>
+        <v>29619</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02861832890146043</v>
+        <v>0.02861832890146044</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01957772020038619</v>
+        <v>0.02049759423995027</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03984313661959117</v>
+        <v>0.04029886943295287</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -1860,19 +1860,19 @@
         <v>36099</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26912</v>
+        <v>26197</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48336</v>
+        <v>48078</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02517514247821537</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01876802577202649</v>
+        <v>0.01826958915608048</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03370946570946947</v>
+        <v>0.03352904202572825</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>30826</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19704</v>
+        <v>21205</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>44784</v>
+        <v>44007</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04410505839450808</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02819229306823613</v>
+        <v>0.03033895736635818</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06407567563727951</v>
+        <v>0.06296308287581845</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>83</v>
@@ -1910,19 +1910,19 @@
         <v>56446</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46045</v>
+        <v>45393</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68755</v>
+        <v>68888</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0767992399034975</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06264733071490447</v>
+        <v>0.06176098785920733</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09354713696811007</v>
+        <v>0.09372780058828439</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -1931,19 +1931,19 @@
         <v>87272</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>72142</v>
+        <v>71990</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>104714</v>
+        <v>104074</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.06086316105411977</v>
+        <v>0.06086316105411978</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05031108004999631</v>
+        <v>0.05020553811807459</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07302711055519999</v>
+        <v>0.07258056255504371</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>210441</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>184998</v>
+        <v>184938</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>236279</v>
+        <v>236273</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3010902514290648</v>
+        <v>0.3010902514290649</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2646875946639146</v>
+        <v>0.2646011128055021</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3380579106031179</v>
+        <v>0.3380497321158688</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>408</v>
@@ -1981,19 +1981,19 @@
         <v>267689</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>244756</v>
+        <v>249369</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>288029</v>
+        <v>288855</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3642113956514816</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3330095440297927</v>
+        <v>0.339285563832636</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3918863862638076</v>
+        <v>0.393009226732667</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>608</v>
@@ -2002,19 +2002,19 @@
         <v>478130</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>449074</v>
+        <v>443951</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>512414</v>
+        <v>508360</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3334443452172997</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3131812924424445</v>
+        <v>0.3096085908631912</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3573535900015684</v>
+        <v>0.3545268988331835</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>442598</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>415191</v>
+        <v>415364</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>467174</v>
+        <v>466867</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6332503425061624</v>
+        <v>0.6332503425061625</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5940376604634153</v>
+        <v>0.5942855122111548</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6684137116603394</v>
+        <v>0.6679740978098668</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>616</v>
@@ -2052,19 +2052,19 @@
         <v>389813</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>368087</v>
+        <v>367400</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>409242</v>
+        <v>410491</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5303710355435605</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5008109440139452</v>
+        <v>0.4998757574882573</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.556805760540969</v>
+        <v>0.5585048951554188</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1036</v>
@@ -2073,19 +2073,19 @@
         <v>832411</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>800654</v>
+        <v>800202</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>867654</v>
+        <v>870035</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5805173512503652</v>
+        <v>0.5805173512503653</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5583702519253158</v>
+        <v>0.5580552180244949</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6050960424467176</v>
+        <v>0.6067560144217564</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>17554</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11515</v>
+        <v>10384</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25948</v>
+        <v>25442</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0289256866371935</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01897580189747962</v>
+        <v>0.01711097762919543</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04275855318564228</v>
+        <v>0.04192438298222633</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2198,19 +2198,19 @@
         <v>29112</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22223</v>
+        <v>21155</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>38453</v>
+        <v>38144</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04791628280916854</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03657755963338687</v>
+        <v>0.03481971408940838</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06328948861123238</v>
+        <v>0.06278151604930882</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>67</v>
@@ -2219,19 +2219,19 @@
         <v>46666</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>36417</v>
+        <v>36359</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>58691</v>
+        <v>59107</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03842658682532174</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02998729833450103</v>
+        <v>0.02993941737792604</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04832864333079853</v>
+        <v>0.04867079093008043</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>55243</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>42686</v>
+        <v>43349</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68182</v>
+        <v>69587</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09103283471873358</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07033973273370428</v>
+        <v>0.07143311398656368</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1123535190851535</v>
+        <v>0.1146694215489658</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>92</v>
@@ -2269,19 +2269,19 @@
         <v>58385</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48169</v>
+        <v>47736</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70130</v>
+        <v>69891</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09609735742719336</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07928273515009268</v>
+        <v>0.07856995858686938</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1154273005460339</v>
+        <v>0.1150345087791695</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>154</v>
@@ -2290,19 +2290,19 @@
         <v>113629</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>97859</v>
+        <v>96600</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>132343</v>
+        <v>131714</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09356659007416541</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08058142753496046</v>
+        <v>0.07954407430166489</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1089766454734448</v>
+        <v>0.1084587239881249</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>216310</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>195800</v>
+        <v>193652</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>238417</v>
+        <v>240608</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3564469135147567</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.322648951548766</v>
+        <v>0.3191095880013525</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3928765508150606</v>
+        <v>0.3964861128791651</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>378</v>
@@ -2340,19 +2340,19 @@
         <v>230408</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>213742</v>
+        <v>212542</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>249171</v>
+        <v>249615</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.379231878099494</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3518009572942062</v>
+        <v>0.3498250534469318</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4101132102525607</v>
+        <v>0.4108450010084705</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>616</v>
@@ -2361,19 +2361,19 @@
         <v>446718</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>417943</v>
+        <v>417482</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>475197</v>
+        <v>473707</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3678461172232262</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3441511633928095</v>
+        <v>0.3437718548274639</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3912969862768823</v>
+        <v>0.3900695724483724</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>317743</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>293732</v>
+        <v>292209</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>339951</v>
+        <v>340612</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5235945651293162</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4840279660984395</v>
+        <v>0.481518097019262</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5601901083730305</v>
+        <v>0.5612787634863624</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>484</v>
@@ -2411,19 +2411,19 @@
         <v>289660</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>271907</v>
+        <v>272182</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>309677</v>
+        <v>309604</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4767544816641439</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4475346390016512</v>
+        <v>0.4479870213156255</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.509700832111176</v>
+        <v>0.5095801630658086</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>824</v>
@@ -2432,19 +2432,19 @@
         <v>607403</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>575182</v>
+        <v>577944</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>636474</v>
+        <v>638187</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5001607058772866</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4736282940335521</v>
+        <v>0.4759025818357139</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5240987681593277</v>
+        <v>0.5255090039338268</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>9270</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5174</v>
+        <v>4706</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16068</v>
+        <v>14759</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02282123170941859</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01273691346238545</v>
+        <v>0.01158580225823093</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03955664918512993</v>
+        <v>0.0363353514763684</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -2557,19 +2557,19 @@
         <v>15064</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10112</v>
+        <v>9821</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>21151</v>
+        <v>21698</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03439699310261137</v>
+        <v>0.03439699310261136</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02308858131471251</v>
+        <v>0.02242420772691582</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04829611869652549</v>
+        <v>0.04954595943679984</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>41</v>
@@ -2578,19 +2578,19 @@
         <v>24334</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>17587</v>
+        <v>17862</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>32254</v>
+        <v>32194</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.028826830417345</v>
+        <v>0.02882683041734501</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0208343522925663</v>
+        <v>0.02115989514239794</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03820984726014758</v>
+        <v>0.03813870326511615</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>25099</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18865</v>
+        <v>17674</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>34436</v>
+        <v>33526</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06179055899439181</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04644408011685339</v>
+        <v>0.04351058470420623</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0847781502761575</v>
+        <v>0.08253824137151423</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>93</v>
@@ -2628,19 +2628,19 @@
         <v>51334</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>42393</v>
+        <v>42165</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>61562</v>
+        <v>62085</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1172145742566659</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09679906777417172</v>
+        <v>0.09628007048061882</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1405693342716011</v>
+        <v>0.1417647094891192</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>131</v>
@@ -2649,19 +2649,19 @@
         <v>76432</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>65163</v>
+        <v>64565</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>89591</v>
+        <v>91234</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.09054498672844524</v>
+        <v>0.09054498672844526</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07719437508292966</v>
+        <v>0.0764861616726388</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1061337836850719</v>
+        <v>0.1080795720780954</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>142287</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>126921</v>
+        <v>126044</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>159398</v>
+        <v>158373</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3502937055779543</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3124662433113057</v>
+        <v>0.3103068912242531</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3924210209049456</v>
+        <v>0.3898977741695466</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>304</v>
@@ -2699,19 +2699,19 @@
         <v>163756</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>148360</v>
+        <v>148406</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>177826</v>
+        <v>177764</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3739181596491964</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3387649544258805</v>
+        <v>0.3388700547951993</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4060466833828023</v>
+        <v>0.4059038330142046</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>507</v>
@@ -2720,19 +2720,19 @@
         <v>306042</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>285387</v>
+        <v>285472</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>329063</v>
+        <v>328477</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3625502635724161</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3380816539089533</v>
+        <v>0.3381825244764864</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3898226421432852</v>
+        <v>0.3891284304725113</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>229537</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>212080</v>
+        <v>212326</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>245435</v>
+        <v>245880</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5650945037182352</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5221184175354808</v>
+        <v>0.5227230715826581</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6042345264736182</v>
+        <v>0.6053284205821623</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>401</v>
@@ -2770,19 +2770,19 @@
         <v>207792</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>194442</v>
+        <v>193181</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>225119</v>
+        <v>222169</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4744702729915264</v>
+        <v>0.4744702729915263</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4439875995664998</v>
+        <v>0.4411080483177985</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5140350324102611</v>
+        <v>0.5072983116080052</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>715</v>
@@ -2791,19 +2791,19 @@
         <v>437328</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>413436</v>
+        <v>415609</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>459062</v>
+        <v>459367</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5180779192817937</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4897737176368324</v>
+        <v>0.4923479674339509</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5438244739477166</v>
+        <v>0.5441864657621311</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>9435</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5420</v>
+        <v>4727</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>15882</v>
+        <v>15045</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0305728341789874</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01756149239140355</v>
+        <v>0.01531592034010442</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05146047069167983</v>
+        <v>0.0487477137740305</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>47</v>
@@ -2916,19 +2916,19 @@
         <v>25979</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>18381</v>
+        <v>19916</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>34070</v>
+        <v>34643</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.0565013025055594</v>
+        <v>0.05650130250555939</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03997741653054351</v>
+        <v>0.04331581518066787</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07409998151163938</v>
+        <v>0.07534483870055039</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>61</v>
@@ -2937,19 +2937,19 @@
         <v>35414</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>26693</v>
+        <v>26751</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>44740</v>
+        <v>45058</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04608747689391927</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03473751696053993</v>
+        <v>0.03481335971742787</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05822462142475807</v>
+        <v>0.05863781795655112</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>35365</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>27028</v>
+        <v>27192</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>44535</v>
+        <v>45716</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1145888924989052</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08757583906560634</v>
+        <v>0.08810847705538435</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1443033028398475</v>
+        <v>0.1481301112947872</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>131</v>
@@ -2987,19 +2987,19 @@
         <v>70050</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>59415</v>
+        <v>59159</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>81844</v>
+        <v>81185</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1523525116995977</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1292228079275904</v>
+        <v>0.1286650223917586</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1780041826650191</v>
+        <v>0.1765710023064182</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>184</v>
@@ -3008,19 +3008,19 @@
         <v>105414</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>90646</v>
+        <v>90974</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>121699</v>
+        <v>121313</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1371852546188016</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1179656195169199</v>
+        <v>0.118392630767879</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1583782830079587</v>
+        <v>0.1578753011623354</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>117887</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>104103</v>
+        <v>104541</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>131918</v>
+        <v>132458</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.3819806347871936</v>
+        <v>0.3819806347871937</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3373166464130277</v>
+        <v>0.338736805297273</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4274448981851537</v>
+        <v>0.4291915235103889</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>387</v>
@@ -3058,19 +3058,19 @@
         <v>204011</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>188059</v>
+        <v>187454</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>220321</v>
+        <v>218866</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4437077568451855</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4090130947419547</v>
+        <v>0.4076981037286896</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4791798520368068</v>
+        <v>0.4760154844628422</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>566</v>
@@ -3079,19 +3079,19 @@
         <v>321898</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>301018</v>
+        <v>301737</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>343249</v>
+        <v>345890</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4189158764871165</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3917422294153237</v>
+        <v>0.3926787212077246</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4467015663581717</v>
+        <v>0.4501384176780663</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>145934</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>131384</v>
+        <v>130306</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>159971</v>
+        <v>158943</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4728576385349139</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4257143735357213</v>
+        <v>0.4222206617123758</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5183403828050598</v>
+        <v>0.5150105843696597</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>307</v>
@@ -3129,19 +3129,19 @@
         <v>159748</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>143721</v>
+        <v>145638</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>174684</v>
+        <v>175604</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3474384289496574</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3125814508742633</v>
+        <v>0.3167516772381487</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3799230238880174</v>
+        <v>0.3819247444875736</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>517</v>
@@ -3150,19 +3150,19 @@
         <v>305681</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>283908</v>
+        <v>285325</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>327178</v>
+        <v>328700</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3978113920001626</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3694758154246665</v>
+        <v>0.371319278650151</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4257865352629088</v>
+        <v>0.4277671846541676</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>76707</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>61340</v>
+        <v>60325</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>96379</v>
+        <v>96073</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.021768225659807</v>
+        <v>0.02176822565980699</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01740730077840002</v>
+        <v>0.01711920089921559</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02735086236901489</v>
+        <v>0.02726412247076969</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>174</v>
@@ -3275,19 +3275,19 @@
         <v>113610</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>96244</v>
+        <v>96904</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>131604</v>
+        <v>132521</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.03050385522999362</v>
+        <v>0.03050385522999361</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02584102895614257</v>
+        <v>0.02601827775070275</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.0353349890185466</v>
+        <v>0.03558113503070091</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>258</v>
@@ -3296,19 +3296,19 @@
         <v>190317</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>167147</v>
+        <v>168581</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>219369</v>
+        <v>217187</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02625696219998096</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02306031459954526</v>
+        <v>0.02325812406849624</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03026501700377845</v>
+        <v>0.02996404037596997</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>199246</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>174630</v>
+        <v>173777</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>229455</v>
+        <v>228138</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05654293014033368</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04955741282481903</v>
+        <v>0.04931520321324125</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06511580968871396</v>
+        <v>0.06474214559828742</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>476</v>
@@ -3346,19 +3346,19 @@
         <v>311448</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>286802</v>
+        <v>284308</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>342653</v>
+        <v>341370</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08362228791299657</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07700495680948517</v>
+        <v>0.07633532916179922</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09200079841078757</v>
+        <v>0.09165613363545722</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>699</v>
@@ -3367,19 +3367,19 @@
         <v>510694</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>471988</v>
+        <v>474049</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>550489</v>
+        <v>552048</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.0704574513253247</v>
+        <v>0.07045745132532472</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06511751373928927</v>
+        <v>0.06540180928859368</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07594785385924008</v>
+        <v>0.07616293554929296</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>1057340</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>996500</v>
+        <v>998683</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1110127</v>
+        <v>1112626</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3000572612995165</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2827918361329289</v>
+        <v>0.2834113918745051</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3150375118793523</v>
+        <v>0.3157466447871872</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1934</v>
@@ -3417,19 +3417,19 @@
         <v>1313142</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1265785</v>
+        <v>1262481</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1368237</v>
+        <v>1365129</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3525723280043298</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3398572822452143</v>
+        <v>0.3389701641297423</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3673652683705884</v>
+        <v>0.3665306915175859</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3022</v>
@@ -3438,19 +3438,19 @@
         <v>2370482</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2292133</v>
+        <v>2288761</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2448807</v>
+        <v>2446599</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.3270417272654346</v>
+        <v>0.3270417272654347</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3162324972546176</v>
+        <v>0.3157671941514634</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3378477955079299</v>
+        <v>0.3375432454526368</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>2190502</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2136071</v>
+        <v>2129460</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2261042</v>
+        <v>2250300</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.6216315829003429</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6061851068894344</v>
+        <v>0.604308806360665</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6416498857725189</v>
+        <v>0.6386014759992942</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2762</v>
@@ -3488,19 +3488,19 @@
         <v>1986260</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1930411</v>
+        <v>1930847</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2041182</v>
+        <v>2037804</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.53330152885268</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5183061484944959</v>
+        <v>0.5184233648494789</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5480476985142229</v>
+        <v>0.5471408953723509</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4734</v>
@@ -3509,19 +3509,19 @@
         <v>4176762</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4102518</v>
+        <v>4090379</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4259032</v>
+        <v>4263511</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.5762438592092596</v>
+        <v>0.5762438592092598</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5660008824546191</v>
+        <v>0.5643261158011235</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5875942071669676</v>
+        <v>0.5882121465631212</v>
       </c>
     </row>
     <row r="43">
